--- a/datasets/primer_express_primers_symmetry.xlsx
+++ b/datasets/primer_express_primers_symmetry.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xkvama\Desktop\py\helper_functions\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5143FDFF-191B-49C0-81CB-93576A78D6BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9092396F-702B-47BD-9609-E2BD6B4EF5D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5472,7 +5472,7 @@
   <dimension ref="A1:G842"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
